--- a/excel-tools/format_IFD.xlsx
+++ b/excel-tools/format_IFD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Library\Automation\ryan-tools\excel-tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\BGER\PER\RP20180.317 WYLOO CREEK CROSSING PFS - FMG\4 ENGINEERING\11 HYDROLOGY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E783FB7-D6B6-4072-B5BC-89149FC0D4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106404F6-B47E-4F57-BB42-507B59C0BC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{E1FEFACF-31CA-4DC4-BF45-269D09030C4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{E1FEFACF-31CA-4DC4-BF45-269D09030C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_IFD" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>Copyright Commonwealth of Australia 2016 Bureau of Meteorology (ABN 92 637 533 532)</t>
   </si>
@@ -238,13 +238,16 @@
     <t>Significant figures</t>
   </si>
   <si>
-    <t>mulga</t>
-  </si>
-  <si>
-    <t>22.0875 (S)</t>
-  </si>
-  <si>
-    <t>118.5875 (E)</t>
+    <t>22.5875 (S)</t>
+  </si>
+  <si>
+    <t>117.0125 (E)</t>
+  </si>
+  <si>
+    <t>X sig fig, rounding integers</t>
+  </si>
+  <si>
+    <t>X sig fig, but does not round integers</t>
   </si>
 </sst>
 </file>
@@ -732,7 +735,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -747,6 +750,7 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="9"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1127,13 +1131,10 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1150,16 +1151,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>45617</v>
+        <v>45575</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1169,13 +1167,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>-22.0945</v>
+        <v>-22.57976</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>118.59180000000001</v>
+        <v>117.00318</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1186,13 +1184,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1273,58 +1271,58 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.45300000000000001</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="D11">
-        <v>0.6</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="E11">
-        <v>0.85499999999999998</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="F11">
-        <v>1.04</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="G11">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="H11">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="I11">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="J11">
-        <v>2.2799999999999998</v>
+        <v>2.09</v>
       </c>
       <c r="K11">
-        <v>2.92</v>
+        <v>2.68</v>
       </c>
       <c r="L11">
-        <v>2.97</v>
+        <v>2.73</v>
       </c>
       <c r="M11">
-        <v>3.51</v>
+        <v>3.22</v>
       </c>
       <c r="N11">
-        <v>4.09</v>
+        <v>3.76</v>
       </c>
       <c r="O11">
-        <v>4.87</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="P11">
-        <v>5.48</v>
+        <v>5.04</v>
       </c>
       <c r="Q11">
-        <v>6.33</v>
+        <v>5.77</v>
       </c>
       <c r="R11">
-        <v>7.64</v>
+        <v>6.88</v>
       </c>
       <c r="S11">
-        <v>8.7200000000000006</v>
+        <v>7.79</v>
       </c>
       <c r="T11">
-        <v>9.9</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1335,58 +1333,58 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>0.83199999999999996</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="D12">
-        <v>1.08</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="E12">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="F12">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="G12">
-        <v>2.21</v>
+        <v>1.98</v>
       </c>
       <c r="H12">
-        <v>2.93</v>
+        <v>2.67</v>
       </c>
       <c r="I12">
-        <v>3.35</v>
+        <v>3.07</v>
       </c>
       <c r="J12">
-        <v>3.72</v>
+        <v>3.4</v>
       </c>
       <c r="K12">
-        <v>4.6500000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="L12">
-        <v>4.74</v>
+        <v>4.38</v>
       </c>
       <c r="M12">
-        <v>5.48</v>
+        <v>5.13</v>
       </c>
       <c r="N12">
-        <v>6.3</v>
+        <v>5.93</v>
       </c>
       <c r="O12">
-        <v>7.33</v>
+        <v>6.99</v>
       </c>
       <c r="P12">
-        <v>8.14</v>
+        <v>7.8</v>
       </c>
       <c r="Q12">
-        <v>9.32</v>
+        <v>9</v>
       </c>
       <c r="R12">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="S12">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="T12">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1397,58 +1395,58 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="D13">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="E13">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="F13">
-        <v>2.5499999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="G13">
-        <v>3.14</v>
+        <v>2.8</v>
       </c>
       <c r="H13">
-        <v>4.1399999999999997</v>
+        <v>3.77</v>
       </c>
       <c r="I13">
-        <v>4.74</v>
+        <v>4.33</v>
       </c>
       <c r="J13">
-        <v>5.26</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="K13">
-        <v>6.62</v>
+        <v>6.1</v>
       </c>
       <c r="L13">
-        <v>6.75</v>
+        <v>6.22</v>
       </c>
       <c r="M13">
-        <v>7.85</v>
+        <v>7.3</v>
       </c>
       <c r="N13">
-        <v>9.06</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="O13">
-        <v>10.6</v>
+        <v>10</v>
       </c>
       <c r="P13">
-        <v>11.8</v>
+        <v>11.2</v>
       </c>
       <c r="Q13">
-        <v>13.6</v>
+        <v>12.9</v>
       </c>
       <c r="R13">
-        <v>16.3</v>
+        <v>15.4</v>
       </c>
       <c r="S13">
-        <v>18.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="T13">
-        <v>20.9</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1459,58 +1457,58 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="D14">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="E14">
-        <v>2.72</v>
+        <v>2.37</v>
       </c>
       <c r="F14">
-        <v>3.26</v>
+        <v>2.87</v>
       </c>
       <c r="G14">
-        <v>4.01</v>
+        <v>3.57</v>
       </c>
       <c r="H14">
-        <v>5.29</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="I14">
-        <v>6.07</v>
+        <v>5.54</v>
       </c>
       <c r="J14">
-        <v>6.74</v>
+        <v>6.15</v>
       </c>
       <c r="K14">
-        <v>8.5299999999999994</v>
+        <v>7.84</v>
       </c>
       <c r="L14">
-        <v>8.6999999999999993</v>
+        <v>7.99</v>
       </c>
       <c r="M14">
-        <v>10.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="N14">
-        <v>11.8</v>
+        <v>10.9</v>
       </c>
       <c r="O14">
-        <v>13.9</v>
+        <v>13</v>
       </c>
       <c r="P14">
-        <v>15.6</v>
+        <v>14.5</v>
       </c>
       <c r="Q14">
-        <v>17.899999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="R14">
-        <v>21.5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="S14">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="T14">
-        <v>27.8</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1521,58 +1519,58 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="D15">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="E15">
-        <v>3.26</v>
+        <v>2.84</v>
       </c>
       <c r="F15">
-        <v>3.91</v>
+        <v>3.43</v>
       </c>
       <c r="G15">
-        <v>4.82</v>
+        <v>4.28</v>
       </c>
       <c r="H15">
-        <v>6.36</v>
+        <v>5.77</v>
       </c>
       <c r="I15">
-        <v>7.31</v>
+        <v>6.66</v>
       </c>
       <c r="J15">
-        <v>8.11</v>
+        <v>7.39</v>
       </c>
       <c r="K15">
-        <v>10.3</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="L15">
-        <v>10.5</v>
+        <v>9.64</v>
       </c>
       <c r="M15">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
       <c r="N15">
-        <v>14.4</v>
+        <v>13.2</v>
       </c>
       <c r="O15">
-        <v>17</v>
+        <v>15.7</v>
       </c>
       <c r="P15">
-        <v>19.100000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="Q15">
-        <v>22.1</v>
+        <v>20.3</v>
       </c>
       <c r="R15">
-        <v>26.5</v>
+        <v>24.2</v>
       </c>
       <c r="S15">
-        <v>30.3</v>
+        <v>27.3</v>
       </c>
       <c r="T15">
-        <v>34.299999999999997</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1583,58 +1581,58 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>2.89</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D16">
-        <v>3.79</v>
+        <v>3.29</v>
       </c>
       <c r="E16">
-        <v>5.34</v>
+        <v>4.66</v>
       </c>
       <c r="F16">
-        <v>6.44</v>
+        <v>5.66</v>
       </c>
       <c r="G16">
-        <v>7.97</v>
+        <v>7.09</v>
       </c>
       <c r="H16">
-        <v>10.6</v>
+        <v>9.6</v>
       </c>
       <c r="I16">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="J16">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="K16">
-        <v>17.399999999999999</v>
+        <v>15.8</v>
       </c>
       <c r="L16">
-        <v>17.7</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="N16">
-        <v>24.5</v>
+        <v>22.3</v>
       </c>
       <c r="O16">
-        <v>29.3</v>
+        <v>26.6</v>
       </c>
       <c r="P16">
-        <v>33.1</v>
+        <v>30</v>
       </c>
       <c r="Q16">
-        <v>38.299999999999997</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="R16">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="S16">
         <v>46.2</v>
       </c>
-      <c r="S16">
-        <v>52.9</v>
-      </c>
       <c r="T16">
-        <v>60.1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1645,58 +1643,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>3.61</v>
+        <v>3.18</v>
       </c>
       <c r="D17">
-        <v>4.76</v>
+        <v>4.17</v>
       </c>
       <c r="E17">
-        <v>6.75</v>
+        <v>5.93</v>
       </c>
       <c r="F17">
-        <v>8.15</v>
+        <v>7.2</v>
       </c>
       <c r="G17">
-        <v>10.1</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="H17">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="I17">
+        <v>14.2</v>
+      </c>
+      <c r="J17">
         <v>15.7</v>
       </c>
-      <c r="J17">
-        <v>17.399999999999999</v>
-      </c>
       <c r="K17">
-        <v>22.2</v>
+        <v>20.2</v>
       </c>
       <c r="L17">
-        <v>22.7</v>
+        <v>20.6</v>
       </c>
       <c r="M17">
-        <v>26.8</v>
+        <v>24.4</v>
       </c>
       <c r="N17">
-        <v>31.4</v>
+        <v>28.5</v>
       </c>
       <c r="O17">
-        <v>37.5</v>
+        <v>34</v>
       </c>
       <c r="P17">
-        <v>42.2</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="Q17">
-        <v>48.9</v>
+        <v>43.8</v>
       </c>
       <c r="R17">
+        <v>52.2</v>
+      </c>
+      <c r="S17">
         <v>59.1</v>
       </c>
-      <c r="S17">
-        <v>67.599999999999994</v>
-      </c>
       <c r="T17">
-        <v>76.7</v>
+        <v>66.400000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -1707,58 +1705,58 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>4.1399999999999997</v>
+        <v>3.68</v>
       </c>
       <c r="D18">
-        <v>5.46</v>
+        <v>4.84</v>
       </c>
       <c r="E18">
-        <v>7.77</v>
+        <v>6.88</v>
       </c>
       <c r="F18">
-        <v>9.41</v>
+        <v>8.36</v>
       </c>
       <c r="G18">
-        <v>11.7</v>
+        <v>10.5</v>
       </c>
       <c r="H18">
-        <v>15.8</v>
+        <v>14.3</v>
       </c>
       <c r="I18">
-        <v>18.2</v>
+        <v>16.5</v>
       </c>
       <c r="J18">
-        <v>20.2</v>
+        <v>18.3</v>
       </c>
       <c r="K18">
-        <v>25.8</v>
+        <v>23.5</v>
       </c>
       <c r="L18">
-        <v>26.3</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>31.1</v>
+        <v>28.3</v>
       </c>
       <c r="N18">
-        <v>36.299999999999997</v>
+        <v>33.1</v>
       </c>
       <c r="O18">
-        <v>43.4</v>
+        <v>39.4</v>
       </c>
       <c r="P18">
-        <v>48.8</v>
+        <v>44.3</v>
       </c>
       <c r="Q18">
-        <v>56.4</v>
+        <v>50.8</v>
       </c>
       <c r="R18">
-        <v>68.099999999999994</v>
+        <v>60.5</v>
       </c>
       <c r="S18">
-        <v>77.8</v>
+        <v>68.5</v>
       </c>
       <c r="T18">
-        <v>88.4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -1769,58 +1767,58 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>4.54</v>
+        <v>4.08</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>5.36</v>
       </c>
       <c r="E19">
-        <v>8.5500000000000007</v>
+        <v>7.62</v>
       </c>
       <c r="F19">
-        <v>10.4</v>
+        <v>9.26</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>11.6</v>
       </c>
       <c r="H19">
-        <v>17.600000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="I19">
-        <v>20.2</v>
+        <v>18.3</v>
       </c>
       <c r="J19">
-        <v>22.4</v>
+        <v>20.3</v>
       </c>
       <c r="K19">
-        <v>28.6</v>
+        <v>26.1</v>
       </c>
       <c r="L19">
-        <v>29.2</v>
+        <v>26.6</v>
       </c>
       <c r="M19">
-        <v>34.4</v>
+        <v>31.4</v>
       </c>
       <c r="N19">
-        <v>40.1</v>
+        <v>36.6</v>
       </c>
       <c r="O19">
-        <v>47.8</v>
+        <v>43.6</v>
       </c>
       <c r="P19">
-        <v>53.7</v>
+        <v>49</v>
       </c>
       <c r="Q19">
-        <v>62.1</v>
+        <v>56.2</v>
       </c>
       <c r="R19">
-        <v>74.900000000000006</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="S19">
-        <v>85.6</v>
+        <v>75.8</v>
       </c>
       <c r="T19">
-        <v>97.1</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -1831,58 +1829,58 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>4.8600000000000003</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D20">
-        <v>6.42</v>
+        <v>5.79</v>
       </c>
       <c r="E20">
-        <v>9.18</v>
+        <v>8.23</v>
       </c>
       <c r="F20">
-        <v>11.2</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>14</v>
+        <v>12.6</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>17.2</v>
       </c>
       <c r="I20">
-        <v>21.9</v>
+        <v>19.8</v>
       </c>
       <c r="J20">
-        <v>24.3</v>
+        <v>22</v>
       </c>
       <c r="K20">
-        <v>30.9</v>
+        <v>28.2</v>
       </c>
       <c r="L20">
-        <v>31.5</v>
+        <v>28.7</v>
       </c>
       <c r="M20">
-        <v>37.1</v>
+        <v>33.9</v>
       </c>
       <c r="N20">
-        <v>43.2</v>
+        <v>39.5</v>
       </c>
       <c r="O20">
-        <v>51.4</v>
+        <v>47</v>
       </c>
       <c r="P20">
-        <v>57.7</v>
+        <v>52.8</v>
       </c>
       <c r="Q20">
-        <v>66.7</v>
+        <v>60.6</v>
       </c>
       <c r="R20">
-        <v>80.400000000000006</v>
+        <v>72.2</v>
       </c>
       <c r="S20">
-        <v>91.8</v>
+        <v>81.7</v>
       </c>
       <c r="T20">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -1893,58 +1891,58 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>5.52</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="D21">
-        <v>7.32</v>
+        <v>6.72</v>
       </c>
       <c r="E21">
-        <v>10.5</v>
+        <v>9.56</v>
       </c>
       <c r="F21">
-        <v>12.8</v>
+        <v>11.6</v>
       </c>
       <c r="G21">
-        <v>16.2</v>
+        <v>14.6</v>
       </c>
       <c r="H21">
-        <v>22.2</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I21">
-        <v>25.5</v>
+        <v>23.2</v>
       </c>
       <c r="J21">
-        <v>28.3</v>
+        <v>25.7</v>
       </c>
       <c r="K21">
-        <v>35.9</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="L21">
-        <v>36.700000000000003</v>
+        <v>33.5</v>
       </c>
       <c r="M21">
-        <v>43.1</v>
+        <v>39.4</v>
       </c>
       <c r="N21">
-        <v>50.1</v>
+        <v>46</v>
       </c>
       <c r="O21">
-        <v>59.4</v>
+        <v>54.6</v>
       </c>
       <c r="P21">
-        <v>66.599999999999994</v>
+        <v>61.3</v>
       </c>
       <c r="Q21">
-        <v>76.900000000000006</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="R21">
-        <v>92.6</v>
+        <v>83.9</v>
       </c>
       <c r="S21">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="T21">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -1955,58 +1953,58 @@
         <v>60</v>
       </c>
       <c r="C22">
-        <v>5.96</v>
+        <v>5.58</v>
       </c>
       <c r="D22">
-        <v>7.9</v>
+        <v>7.35</v>
       </c>
       <c r="E22">
-        <v>11.4</v>
+        <v>10.5</v>
       </c>
       <c r="F22">
-        <v>13.9</v>
+        <v>12.8</v>
       </c>
       <c r="G22">
-        <v>17.7</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H22">
-        <v>24.4</v>
+        <v>22.1</v>
       </c>
       <c r="I22">
-        <v>28</v>
+        <v>25.5</v>
       </c>
       <c r="J22">
-        <v>31.1</v>
+        <v>28.3</v>
       </c>
       <c r="K22">
-        <v>39.6</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="L22">
-        <v>40.299999999999997</v>
+        <v>36.9</v>
       </c>
       <c r="M22">
-        <v>47.4</v>
+        <v>43.4</v>
       </c>
       <c r="N22">
-        <v>55.1</v>
+        <v>50.6</v>
       </c>
       <c r="O22">
-        <v>65.400000000000006</v>
+        <v>60.2</v>
       </c>
       <c r="P22">
-        <v>73.400000000000006</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="Q22">
-        <v>84.6</v>
+        <v>77.5</v>
       </c>
       <c r="R22">
-        <v>102</v>
+        <v>92.5</v>
       </c>
       <c r="S22">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="T22">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2017,58 +2015,58 @@
         <v>90</v>
       </c>
       <c r="C23">
-        <v>6.51</v>
+        <v>6.2</v>
       </c>
       <c r="D23">
-        <v>8.67</v>
+        <v>8.18</v>
       </c>
       <c r="E23">
-        <v>12.6</v>
+        <v>11.7</v>
       </c>
       <c r="F23">
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
       <c r="G23">
-        <v>19.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="H23">
-        <v>27.5</v>
+        <v>25</v>
       </c>
       <c r="I23">
-        <v>31.7</v>
+        <v>28.8</v>
       </c>
       <c r="J23">
-        <v>35.200000000000003</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>44.9</v>
+        <v>41</v>
       </c>
       <c r="L23">
-        <v>45.8</v>
+        <v>41.8</v>
       </c>
       <c r="M23">
-        <v>53.9</v>
+        <v>49.3</v>
       </c>
       <c r="N23">
-        <v>62.9</v>
+        <v>57.5</v>
       </c>
       <c r="O23">
-        <v>74.8</v>
+        <v>68.5</v>
       </c>
       <c r="P23">
-        <v>84.2</v>
+        <v>77</v>
       </c>
       <c r="Q23">
-        <v>97</v>
+        <v>88.4</v>
       </c>
       <c r="R23">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="S23">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="T23">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2079,58 +2077,58 @@
         <v>120</v>
       </c>
       <c r="C24">
-        <v>6.87</v>
+        <v>6.61</v>
       </c>
       <c r="D24">
-        <v>9.18</v>
+        <v>8.75</v>
       </c>
       <c r="E24">
-        <v>13.4</v>
+        <v>12.6</v>
       </c>
       <c r="F24">
-        <v>16.5</v>
+        <v>15.4</v>
       </c>
       <c r="G24">
-        <v>21.2</v>
+        <v>19.5</v>
       </c>
       <c r="H24">
-        <v>29.8</v>
+        <v>27.1</v>
       </c>
       <c r="I24">
-        <v>34.4</v>
+        <v>31.3</v>
       </c>
       <c r="J24">
-        <v>38.200000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="K24">
-        <v>49.1</v>
+        <v>44.6</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>45.5</v>
       </c>
       <c r="M24">
-        <v>59.2</v>
+        <v>53.8</v>
       </c>
       <c r="N24">
-        <v>69.2</v>
+        <v>62.9</v>
       </c>
       <c r="O24">
-        <v>82.8</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="P24">
-        <v>93.4</v>
+        <v>84.6</v>
       </c>
       <c r="Q24">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="R24">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="S24">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="T24">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2141,58 +2139,58 @@
         <v>180</v>
       </c>
       <c r="C25">
-        <v>7.37</v>
+        <v>7.15</v>
       </c>
       <c r="D25">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="E25">
-        <v>14.5</v>
+        <v>13.7</v>
       </c>
       <c r="F25">
-        <v>18</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G25">
-        <v>23.3</v>
+        <v>21.5</v>
       </c>
       <c r="H25">
-        <v>33.200000000000003</v>
+        <v>30</v>
       </c>
       <c r="I25">
-        <v>38.5</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="J25">
-        <v>42.8</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="K25">
-        <v>55.8</v>
+        <v>50.2</v>
       </c>
       <c r="L25">
-        <v>56.9</v>
+        <v>51.2</v>
       </c>
       <c r="M25">
-        <v>67.8</v>
+        <v>60.9</v>
       </c>
       <c r="N25">
-        <v>80</v>
+        <v>71.5</v>
       </c>
       <c r="O25">
-        <v>96.6</v>
+        <v>85.9</v>
       </c>
       <c r="P25">
-        <v>110</v>
+        <v>97.2</v>
       </c>
       <c r="Q25">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="R25">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="S25">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="T25">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2203,58 +2201,58 @@
         <v>270</v>
       </c>
       <c r="C26">
-        <v>7.87</v>
+        <v>7.67</v>
       </c>
       <c r="D26">
-        <v>10.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E26">
-        <v>15.8</v>
+        <v>14.9</v>
       </c>
       <c r="F26">
-        <v>19.7</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G26">
-        <v>25.6</v>
+        <v>23.6</v>
       </c>
       <c r="H26">
-        <v>37</v>
+        <v>33.1</v>
       </c>
       <c r="I26">
-        <v>43.2</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="J26">
-        <v>48</v>
+        <v>42.9</v>
       </c>
       <c r="K26">
-        <v>63.8</v>
+        <v>56.5</v>
       </c>
       <c r="L26">
-        <v>65.099999999999994</v>
+        <v>57.6</v>
       </c>
       <c r="M26">
-        <v>78.599999999999994</v>
+        <v>69</v>
       </c>
       <c r="N26">
-        <v>93.7</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="O26">
-        <v>115</v>
+        <v>98.9</v>
       </c>
       <c r="P26">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q26">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="R26">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="S26">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="T26">
-        <v>239</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -2265,58 +2263,58 @@
         <v>360</v>
       </c>
       <c r="C27">
-        <v>8.25</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="D27">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="E27">
-        <v>16.8</v>
+        <v>15.8</v>
       </c>
       <c r="F27">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="G27">
-        <v>27.5</v>
+        <v>25.1</v>
       </c>
       <c r="H27">
-        <v>40</v>
+        <v>35.5</v>
       </c>
       <c r="I27">
-        <v>47.1</v>
+        <v>41.6</v>
       </c>
       <c r="J27">
-        <v>52.2</v>
+        <v>46.1</v>
       </c>
       <c r="K27">
-        <v>70.599999999999994</v>
+        <v>61.4</v>
       </c>
       <c r="L27">
-        <v>72</v>
+        <v>62.6</v>
       </c>
       <c r="M27">
-        <v>87.8</v>
+        <v>75.5</v>
       </c>
       <c r="N27">
-        <v>106</v>
+        <v>89.9</v>
       </c>
       <c r="O27">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="P27">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="Q27">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="R27">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="S27">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="T27">
-        <v>276</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2327,58 +2325,58 @@
         <v>540</v>
       </c>
       <c r="C28">
-        <v>8.85</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="D28">
-        <v>12.2</v>
+        <v>11.5</v>
       </c>
       <c r="E28">
-        <v>18.3</v>
+        <v>17</v>
       </c>
       <c r="F28">
-        <v>23.1</v>
+        <v>21.1</v>
       </c>
       <c r="G28">
-        <v>30.4</v>
+        <v>27.3</v>
       </c>
       <c r="H28">
-        <v>44.8</v>
+        <v>38.9</v>
       </c>
       <c r="I28">
-        <v>53.2</v>
+        <v>45.9</v>
       </c>
       <c r="J28">
-        <v>59.1</v>
+        <v>50.9</v>
       </c>
       <c r="K28">
-        <v>81.8</v>
+        <v>69</v>
       </c>
       <c r="L28">
-        <v>83.5</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="M28">
+        <v>85.8</v>
+      </c>
+      <c r="N28">
         <v>103</v>
       </c>
-      <c r="N28">
-        <v>126</v>
-      </c>
       <c r="O28">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="P28">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="Q28">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="R28">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="S28">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="T28">
-        <v>339</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -2389,58 +2387,58 @@
         <v>720</v>
       </c>
       <c r="C29">
-        <v>9.34</v>
+        <v>8.92</v>
       </c>
       <c r="D29">
-        <v>12.9</v>
+        <v>12.1</v>
       </c>
       <c r="E29">
-        <v>19.600000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F29">
-        <v>24.8</v>
+        <v>22.3</v>
       </c>
       <c r="G29">
-        <v>32.799999999999997</v>
+        <v>28.9</v>
       </c>
       <c r="H29">
-        <v>48.8</v>
+        <v>41.5</v>
       </c>
       <c r="I29">
-        <v>58.3</v>
+        <v>49.1</v>
       </c>
       <c r="J29">
-        <v>64.7</v>
+        <v>54.5</v>
       </c>
       <c r="K29">
-        <v>91.1</v>
+        <v>74.8</v>
       </c>
       <c r="L29">
-        <v>92.9</v>
+        <v>76.3</v>
       </c>
       <c r="M29">
-        <v>116</v>
+        <v>93.7</v>
       </c>
       <c r="N29">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="O29">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="P29">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="Q29">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="R29">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="S29">
-        <v>343</v>
+        <v>251</v>
       </c>
       <c r="T29">
-        <v>391</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -2451,58 +2449,58 @@
         <v>1080</v>
       </c>
       <c r="C30">
-        <v>10.1</v>
+        <v>9.49</v>
       </c>
       <c r="D30">
-        <v>14.1</v>
+        <v>12.9</v>
       </c>
       <c r="E30">
-        <v>21.7</v>
+        <v>19.2</v>
       </c>
       <c r="F30">
-        <v>27.5</v>
+        <v>24</v>
       </c>
       <c r="G30">
-        <v>36.700000000000003</v>
+        <v>31.2</v>
       </c>
       <c r="H30">
-        <v>54.9</v>
+        <v>45.1</v>
       </c>
       <c r="I30">
-        <v>66.2</v>
+        <v>53.8</v>
       </c>
       <c r="J30">
-        <v>73.5</v>
+        <v>59.7</v>
       </c>
       <c r="K30">
-        <v>106</v>
+        <v>83.2</v>
       </c>
       <c r="L30">
-        <v>108</v>
+        <v>84.9</v>
       </c>
       <c r="M30">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="N30">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="O30">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="P30">
+        <v>189</v>
+      </c>
+      <c r="Q30">
+        <v>216</v>
+      </c>
+      <c r="R30">
         <v>257</v>
       </c>
-      <c r="Q30">
-        <v>298</v>
-      </c>
-      <c r="R30">
-        <v>360</v>
-      </c>
       <c r="S30">
-        <v>412</v>
+        <v>291</v>
       </c>
       <c r="T30">
-        <v>469</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -2513,58 +2511,58 @@
         <v>1440</v>
       </c>
       <c r="C31">
-        <v>10.8</v>
+        <v>9.91</v>
       </c>
       <c r="D31">
-        <v>15.1</v>
+        <v>13.5</v>
       </c>
       <c r="E31">
-        <v>23.3</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F31">
-        <v>29.7</v>
+        <v>25.2</v>
       </c>
       <c r="G31">
-        <v>39.700000000000003</v>
+        <v>32.9</v>
       </c>
       <c r="H31">
-        <v>59.8</v>
+        <v>47.7</v>
       </c>
       <c r="I31">
-        <v>72.3</v>
+        <v>57</v>
       </c>
       <c r="J31">
-        <v>80.3</v>
+        <v>63.3</v>
       </c>
       <c r="K31">
-        <v>117</v>
+        <v>89.2</v>
       </c>
       <c r="L31">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="M31">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="N31">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="O31">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="P31">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="Q31">
-        <v>334</v>
+        <v>237</v>
       </c>
       <c r="R31">
-        <v>403</v>
+        <v>282</v>
       </c>
       <c r="S31">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="T31">
-        <v>522</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -2575,58 +2573,58 @@
         <v>1800</v>
       </c>
       <c r="C32">
-        <v>11.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D32">
-        <v>15.9</v>
+        <v>14</v>
       </c>
       <c r="E32">
-        <v>24.6</v>
+        <v>20.8</v>
       </c>
       <c r="F32">
-        <v>31.4</v>
+        <v>26.1</v>
       </c>
       <c r="G32">
-        <v>42.1</v>
+        <v>34.1</v>
       </c>
       <c r="H32">
-        <v>63.7</v>
+        <v>49.6</v>
       </c>
       <c r="I32">
-        <v>77.2</v>
+        <v>59.5</v>
       </c>
       <c r="J32">
-        <v>85.7</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K32">
-        <v>126</v>
+        <v>93.7</v>
       </c>
       <c r="L32">
-        <v>128</v>
+        <v>95.5</v>
       </c>
       <c r="M32">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="N32">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="O32">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="P32">
-        <v>313</v>
+        <v>220</v>
       </c>
       <c r="Q32">
-        <v>364</v>
+        <v>256</v>
       </c>
       <c r="R32">
-        <v>439</v>
+        <v>305</v>
       </c>
       <c r="S32">
-        <v>502</v>
+        <v>346</v>
       </c>
       <c r="T32">
-        <v>562</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -2637,58 +2635,58 @@
         <v>2160</v>
       </c>
       <c r="C33">
-        <v>11.8</v>
+        <v>10.5</v>
       </c>
       <c r="D33">
-        <v>16.600000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="E33">
-        <v>25.7</v>
+        <v>21.4</v>
       </c>
       <c r="F33">
-        <v>32.9</v>
+        <v>26.8</v>
       </c>
       <c r="G33">
-        <v>44.1</v>
+        <v>35.1</v>
       </c>
       <c r="H33">
-        <v>66.900000000000006</v>
+        <v>51.2</v>
       </c>
       <c r="I33">
-        <v>81.3</v>
+        <v>61.5</v>
       </c>
       <c r="J33">
-        <v>90.2</v>
+        <v>68.3</v>
       </c>
       <c r="K33">
-        <v>133</v>
+        <v>97.2</v>
       </c>
       <c r="L33">
-        <v>135</v>
+        <v>99.1</v>
       </c>
       <c r="M33">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="N33">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="O33">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="P33">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="Q33">
-        <v>384</v>
+        <v>268</v>
       </c>
       <c r="R33">
-        <v>462</v>
+        <v>320</v>
       </c>
       <c r="S33">
-        <v>526</v>
+        <v>364</v>
       </c>
       <c r="T33">
-        <v>587</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -2699,58 +2697,58 @@
         <v>2880</v>
       </c>
       <c r="C34">
-        <v>12.5</v>
+        <v>10.9</v>
       </c>
       <c r="D34">
-        <v>17.600000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="E34">
-        <v>27.4</v>
+        <v>22.3</v>
       </c>
       <c r="F34">
-        <v>35.1</v>
+        <v>28</v>
       </c>
       <c r="G34">
-        <v>47.3</v>
+        <v>36.6</v>
       </c>
       <c r="H34">
-        <v>72</v>
+        <v>53.7</v>
       </c>
       <c r="I34">
-        <v>87.5</v>
+        <v>64.5</v>
       </c>
       <c r="J34">
-        <v>97.2</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="K34">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="L34">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="M34">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="N34">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="O34">
-        <v>300</v>
+        <v>207</v>
       </c>
       <c r="P34">
-        <v>352</v>
+        <v>243</v>
       </c>
       <c r="Q34">
-        <v>406</v>
+        <v>284</v>
       </c>
       <c r="R34">
-        <v>485</v>
+        <v>339</v>
       </c>
       <c r="S34">
-        <v>550</v>
+        <v>386</v>
       </c>
       <c r="T34">
-        <v>611</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -2761,58 +2759,58 @@
         <v>4320</v>
       </c>
       <c r="C35">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>15.6</v>
       </c>
       <c r="E35">
-        <v>29.6</v>
+        <v>23.5</v>
       </c>
       <c r="F35">
-        <v>38.1</v>
+        <v>29.5</v>
       </c>
       <c r="G35">
-        <v>51.4</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="H35">
-        <v>78.7</v>
+        <v>57.2</v>
       </c>
       <c r="I35">
-        <v>95.5</v>
+        <v>68.8</v>
       </c>
       <c r="J35">
-        <v>106</v>
+        <v>76.3</v>
       </c>
       <c r="K35">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="L35">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="M35">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="N35">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="O35">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="P35">
-        <v>371</v>
+        <v>257</v>
       </c>
       <c r="Q35">
-        <v>423</v>
+        <v>297</v>
       </c>
       <c r="R35">
-        <v>499</v>
+        <v>356</v>
       </c>
       <c r="S35">
-        <v>560</v>
+        <v>405</v>
       </c>
       <c r="T35">
-        <v>625</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -2823,58 +2821,58 @@
         <v>5760</v>
       </c>
       <c r="C36">
-        <v>14.1</v>
+        <v>11.8</v>
       </c>
       <c r="D36">
-        <v>19.8</v>
+        <v>16</v>
       </c>
       <c r="E36">
-        <v>30.9</v>
+        <v>24.3</v>
       </c>
       <c r="F36">
-        <v>39.799999999999997</v>
+        <v>30.7</v>
       </c>
       <c r="G36">
-        <v>53.9</v>
+        <v>40.6</v>
       </c>
       <c r="H36">
-        <v>82.6</v>
+        <v>60</v>
       </c>
       <c r="I36">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="J36">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="K36">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="L36">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="M36">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="N36">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="O36">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="P36">
-        <v>376</v>
+        <v>263</v>
       </c>
       <c r="Q36">
-        <v>428</v>
+        <v>303</v>
       </c>
       <c r="R36">
-        <v>502</v>
+        <v>364</v>
       </c>
       <c r="S36">
-        <v>561</v>
+        <v>413</v>
       </c>
       <c r="T36">
-        <v>629</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -2885,58 +2883,58 @@
         <v>7200</v>
       </c>
       <c r="C37">
-        <v>14.5</v>
+        <v>11.9</v>
       </c>
       <c r="D37">
-        <v>20.2</v>
+        <v>16.3</v>
       </c>
       <c r="E37">
-        <v>31.5</v>
+        <v>25</v>
       </c>
       <c r="F37">
-        <v>40.700000000000003</v>
+        <v>31.7</v>
       </c>
       <c r="G37">
-        <v>55.2</v>
+        <v>42.1</v>
       </c>
       <c r="H37">
-        <v>85</v>
+        <v>62.5</v>
       </c>
       <c r="I37">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J37">
-        <v>114</v>
+        <v>83.3</v>
       </c>
       <c r="K37">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="L37">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="M37">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="N37">
-        <v>264</v>
+        <v>184</v>
       </c>
       <c r="O37">
-        <v>326</v>
+        <v>230</v>
       </c>
       <c r="P37">
-        <v>376</v>
+        <v>267</v>
       </c>
       <c r="Q37">
-        <v>432</v>
+        <v>306</v>
       </c>
       <c r="R37">
-        <v>505</v>
+        <v>368</v>
       </c>
       <c r="S37">
-        <v>563</v>
+        <v>418</v>
       </c>
       <c r="T37">
-        <v>633</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -2947,58 +2945,58 @@
         <v>8640</v>
       </c>
       <c r="C38">
-        <v>14.6</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>20.399999999999999</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E38">
-        <v>31.8</v>
+        <v>25.5</v>
       </c>
       <c r="F38">
-        <v>41.1</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="G38">
-        <v>56</v>
+        <v>43.7</v>
       </c>
       <c r="H38">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="I38">
+        <v>78</v>
+      </c>
+      <c r="J38">
         <v>86.5</v>
       </c>
-      <c r="I38">
-        <v>104</v>
-      </c>
-      <c r="J38">
-        <v>116</v>
-      </c>
       <c r="K38">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="L38">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="M38">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="N38">
-        <v>265</v>
+        <v>188</v>
       </c>
       <c r="O38">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c r="P38">
-        <v>377</v>
+        <v>271</v>
       </c>
       <c r="Q38">
-        <v>436</v>
+        <v>309</v>
       </c>
       <c r="R38">
-        <v>510</v>
+        <v>372</v>
       </c>
       <c r="S38">
-        <v>569</v>
+        <v>422</v>
       </c>
       <c r="T38">
-        <v>639</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -3009,58 +3007,58 @@
         <v>10080</v>
       </c>
       <c r="C39">
-        <v>14.7</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>20.399999999999999</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E39">
-        <v>31.8</v>
+        <v>26</v>
       </c>
       <c r="F39">
-        <v>41.2</v>
+        <v>33.6</v>
       </c>
       <c r="G39">
-        <v>56.3</v>
+        <v>45.2</v>
       </c>
       <c r="H39">
-        <v>87.3</v>
+        <v>67.7</v>
       </c>
       <c r="I39">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="J39">
-        <v>117</v>
+        <v>89.9</v>
       </c>
       <c r="K39">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="L39">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="M39">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="N39">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="O39">
-        <v>328</v>
+        <v>239</v>
       </c>
       <c r="P39">
-        <v>378</v>
+        <v>275</v>
       </c>
       <c r="Q39">
-        <v>441</v>
+        <v>312</v>
       </c>
       <c r="R39">
-        <v>517</v>
+        <v>375</v>
       </c>
       <c r="S39">
-        <v>578</v>
+        <v>426</v>
       </c>
       <c r="T39">
-        <v>648</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -3074,7 +3072,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,11 +3154,11 @@
     <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>raw_IFD!C7</f>
-        <v>22.0875 (S)</v>
+        <v>22.5875 (S)</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>LEFT(A2, FIND(" ", A2) - 1)</f>
-        <v>22.0875</v>
+        <v>22.5875</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>58</v>
@@ -3224,11 +3222,11 @@
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>raw_IFD!E7</f>
-        <v>118.5875 (E)</v>
+        <v>117.0125 (E)</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>LEFT(A3, FIND(" ", A3) - 1)</f>
-        <v>118.5875</v>
+        <v>117.0125</v>
       </c>
       <c r="G3" t="s">
         <v>53</v>
@@ -3317,7 +3315,17 @@
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G7" s="2" t="str">
         <f>_xlfn.CONCAT("IFD data for ",B2, "°S, ", B3,"°E")</f>
-        <v>IFD data for 22.0875°S, 118.5875°E</v>
+        <v>IFD data for 22.5875°S, 117.0125°E</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="7" t="str">
+        <f>G7</f>
+        <v>IFD data for 22.5875°S, 117.0125°E</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3359,6 +3367,31 @@
         <v>0.02</v>
       </c>
       <c r="N8" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="4" cm="1">
+        <f t="array" ref="R8:X8">_xlfn.ANCHORARRAY(H8)</f>
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="X8" s="5">
         <v>0.01</v>
       </c>
     </row>
@@ -3376,24 +3409,24 @@
         <v>1 min</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" ref="D9:D22">_xlfn.LET(
+        <f t="array" ref="D9:D20">_xlfn.LET(
     _xlpm.source,_xlfn.ANCHORARRAY( A9),
     _xlpm.filterCriteria, C9:C1004,
     _xlpm.filteredResults, _xlfn._xlws.FILTER(_xlpm.source, COUNTIF(_xlpm.filterCriteria, _xlpm.source) &gt; 0),
     _xlpm.filteredResults
 )</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E9" t="str" cm="1">
-        <f t="array" ref="E9:E22">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(D9),_xlfn.ANCHORARRAY(A9),_xlfn.ANCHORARRAY(B9),NA(),0)</f>
-        <v>30 min</v>
+        <f t="array" ref="E9:E20">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(D9),_xlfn.ANCHORARRAY(A9),_xlfn.ANCHORARRAY(B9),NA(),0)</f>
+        <v>1 hour</v>
       </c>
       <c r="G9" t="str" cm="1">
-        <f t="array" ref="G9:G22">_xlfn.ANCHORARRAY(E9)</f>
-        <v>30 min</v>
+        <f t="array" ref="G9:G20">_xlfn.ANCHORARRAY(E9)</f>
+        <v>1 hour</v>
       </c>
       <c r="H9" s="3" t="str" cm="1">
-        <f t="array" ref="H9:N22">_xlfn.LET(
+        <f t="array" ref="H9:N20">_xlfn.LET(
     _xlpm.columnHeader,_xlfn.ANCHORARRAY( H8),
     _xlpm.rowLabel,_xlfn.ANCHORARRAY( G9),
     _xlpm.dataRange, raw_IFD!C11:AZ200,
@@ -3410,25 +3443,71 @@
     ),
     _xlpm.formattedValue
 )</f>
-        <v>19.0</v>
+        <v>22.1</v>
       </c>
       <c r="I9" s="3" t="str">
-        <v>21.9</v>
+        <v>25.5</v>
       </c>
       <c r="J9" s="3" t="str">
-        <v>30.9</v>
+        <v>36.2</v>
       </c>
       <c r="K9" s="3" t="str">
-        <v>37.1</v>
+        <v>43.4</v>
       </c>
       <c r="L9" s="3" t="str">
-        <v>43.2</v>
+        <v>50.6</v>
       </c>
       <c r="M9" s="3" t="str">
-        <v>51.4</v>
+        <v>60.2</v>
       </c>
       <c r="N9" s="3" t="str">
-        <v>57.7</v>
+        <v>67.6</v>
+      </c>
+      <c r="Q9" t="str" cm="1">
+        <f t="array" ref="Q9:Q20">_xlfn.ANCHORARRAY(G9)</f>
+        <v>1 hour</v>
+      </c>
+      <c r="R9" s="3" t="str" cm="1">
+        <f t="array" ref="R9:X20">_xlfn.LET(
+    _xlpm.columnHeader,_xlfn.ANCHORARRAY( H8),
+    _xlpm.rowLabel,_xlfn.ANCHORARRAY( G9),
+    _xlpm.dataRange, raw_IFD!C11:AZ200,
+    _xlpm.columnRange, raw_IFD!C10:AZ10,
+    _xlpm.rowRange, raw_IFD!A11:A200,
+    _xlpm.sigFigs, B1,
+    _xlpm.value, INDEX(_xlpm.dataRange, MATCH(_xlpm.rowLabel, _xlpm.rowRange, 0), MATCH(_xlpm.columnHeader, _xlpm.columnRange, 0)),
+    _xlpm.intDigits, INT(LOG10(ABS(_xlpm.value))) + 1,
+    _xlpm.roundedValue, IF(
+        _xlpm.intDigits &gt;= _xlpm.sigFigs,
+        ROUND(_xlpm.value, 0),
+        ROUND(_xlpm.value, _xlpm.sigFigs - _xlpm.intDigits)
+    ),
+    _xlpm.formattedValue, IF(
+        _xlpm.sigFigs - _xlpm.intDigits &gt; 0,
+        TEXT(_xlpm.roundedValue, "0." &amp; REPT("0", _xlpm.sigFigs - _xlpm.intDigits)),
+        TEXT(_xlpm.roundedValue, "0")
+    ),
+    _xlpm.formattedValue
+)</f>
+        <v>22.1</v>
+      </c>
+      <c r="S9" s="3" t="str">
+        <v>25.5</v>
+      </c>
+      <c r="T9" s="3" t="str">
+        <v>36.2</v>
+      </c>
+      <c r="U9" s="3" t="str">
+        <v>43.4</v>
+      </c>
+      <c r="V9" s="3" t="str">
+        <v>50.6</v>
+      </c>
+      <c r="W9" s="3" t="str">
+        <v>60.2</v>
+      </c>
+      <c r="X9" s="3" t="str">
+        <v>67.6</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -3439,34 +3518,58 @@
         <v>2 min</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E10" t="str">
-        <v>1 hour</v>
+        <v>2 hour</v>
       </c>
       <c r="G10" t="str">
-        <v>1 hour</v>
+        <v>2 hour</v>
       </c>
       <c r="H10" s="3" t="str">
-        <v>24.4</v>
+        <v>27.1</v>
       </c>
       <c r="I10" s="3" t="str">
-        <v>28.0</v>
+        <v>31.3</v>
       </c>
       <c r="J10" s="3" t="str">
-        <v>39.6</v>
+        <v>44.6</v>
       </c>
       <c r="K10" s="3" t="str">
-        <v>47.4</v>
+        <v>53.8</v>
       </c>
       <c r="L10" s="3" t="str">
-        <v>55.1</v>
+        <v>62.9</v>
       </c>
       <c r="M10" s="3" t="str">
-        <v>65.4</v>
+        <v>75.1</v>
       </c>
       <c r="N10" s="3" t="str">
-        <v>73.4</v>
+        <v>84.6</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>2 hour</v>
+      </c>
+      <c r="R10" s="3" t="str">
+        <v>27.1</v>
+      </c>
+      <c r="S10" s="3" t="str">
+        <v>31.3</v>
+      </c>
+      <c r="T10" s="3" t="str">
+        <v>44.6</v>
+      </c>
+      <c r="U10" s="3" t="str">
+        <v>53.8</v>
+      </c>
+      <c r="V10" s="3" t="str">
+        <v>62.9</v>
+      </c>
+      <c r="W10" s="3" t="str">
+        <v>75.1</v>
+      </c>
+      <c r="X10" s="3" t="str">
+        <v>84.6</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -3477,34 +3580,58 @@
         <v>3 min</v>
       </c>
       <c r="D11">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E11" t="str">
-        <v>1.5 hour</v>
+        <v>3 hour</v>
       </c>
       <c r="G11" t="str">
-        <v>1.5 hour</v>
+        <v>3 hour</v>
       </c>
       <c r="H11" s="3" t="str">
-        <v>27.5</v>
+        <v>30.0</v>
       </c>
       <c r="I11" s="3" t="str">
-        <v>31.7</v>
+        <v>34.8</v>
       </c>
       <c r="J11" s="3" t="str">
-        <v>44.9</v>
+        <v>50.2</v>
       </c>
       <c r="K11" s="3" t="str">
-        <v>53.9</v>
+        <v>60.9</v>
       </c>
       <c r="L11" s="3" t="str">
-        <v>62.9</v>
+        <v>71.5</v>
       </c>
       <c r="M11" s="3" t="str">
-        <v>74.8</v>
+        <v>85.9</v>
       </c>
       <c r="N11" s="3" t="str">
-        <v>84.2</v>
+        <v>97.2</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>3 hour</v>
+      </c>
+      <c r="R11" s="3" t="str">
+        <v>30.0</v>
+      </c>
+      <c r="S11" s="3" t="str">
+        <v>34.8</v>
+      </c>
+      <c r="T11" s="3" t="str">
+        <v>50.2</v>
+      </c>
+      <c r="U11" s="3" t="str">
+        <v>60.9</v>
+      </c>
+      <c r="V11" s="3" t="str">
+        <v>71.5</v>
+      </c>
+      <c r="W11" s="3" t="str">
+        <v>85.9</v>
+      </c>
+      <c r="X11" s="3" t="str">
+        <v>97.2</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -3515,34 +3642,58 @@
         <v>4 min</v>
       </c>
       <c r="D12">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="E12" t="str">
-        <v>2 hour</v>
+        <v>6 hour</v>
       </c>
       <c r="G12" t="str">
-        <v>2 hour</v>
+        <v>6 hour</v>
       </c>
       <c r="H12" s="3" t="str">
-        <v>29.8</v>
+        <v>35.5</v>
       </c>
       <c r="I12" s="3" t="str">
-        <v>34.4</v>
+        <v>41.6</v>
       </c>
       <c r="J12" s="3" t="str">
-        <v>49.1</v>
+        <v>61.4</v>
       </c>
       <c r="K12" s="3" t="str">
-        <v>59.2</v>
+        <v>75.5</v>
       </c>
       <c r="L12" s="3" t="str">
-        <v>69.2</v>
+        <v>89.9</v>
       </c>
       <c r="M12" s="3" t="str">
-        <v>82.8</v>
+        <v>110</v>
       </c>
       <c r="N12" s="3" t="str">
-        <v>93.4</v>
+        <v>125</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>6 hour</v>
+      </c>
+      <c r="R12" s="3" t="str">
+        <v>35.5</v>
+      </c>
+      <c r="S12" s="3" t="str">
+        <v>41.6</v>
+      </c>
+      <c r="T12" s="3" t="str">
+        <v>61.4</v>
+      </c>
+      <c r="U12" s="3" t="str">
+        <v>75.5</v>
+      </c>
+      <c r="V12" s="3" t="str">
+        <v>89.9</v>
+      </c>
+      <c r="W12" s="3" t="str">
+        <v>110</v>
+      </c>
+      <c r="X12" s="3" t="str">
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -3553,34 +3704,58 @@
         <v>5 min</v>
       </c>
       <c r="D13">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="E13" t="str">
-        <v>3 hour</v>
+        <v>9 hour</v>
       </c>
       <c r="G13" t="str">
-        <v>3 hour</v>
+        <v>9 hour</v>
       </c>
       <c r="H13" s="3" t="str">
-        <v>33.2</v>
+        <v>38.9</v>
       </c>
       <c r="I13" s="3" t="str">
-        <v>38.5</v>
+        <v>45.9</v>
       </c>
       <c r="J13" s="3" t="str">
-        <v>55.8</v>
+        <v>69.0</v>
       </c>
       <c r="K13" s="3" t="str">
-        <v>67.8</v>
+        <v>85.8</v>
       </c>
       <c r="L13" s="3" t="str">
-        <v>80.0</v>
+        <v>103</v>
       </c>
       <c r="M13" s="3" t="str">
-        <v>96.6</v>
+        <v>127</v>
       </c>
       <c r="N13" s="3" t="str">
-        <v>110</v>
+        <v>147</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>9 hour</v>
+      </c>
+      <c r="R13" s="3" t="str">
+        <v>38.9</v>
+      </c>
+      <c r="S13" s="3" t="str">
+        <v>45.9</v>
+      </c>
+      <c r="T13" s="3" t="str">
+        <v>69.0</v>
+      </c>
+      <c r="U13" s="3" t="str">
+        <v>85.8</v>
+      </c>
+      <c r="V13" s="3" t="str">
+        <v>103</v>
+      </c>
+      <c r="W13" s="3" t="str">
+        <v>127</v>
+      </c>
+      <c r="X13" s="3" t="str">
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -3591,34 +3766,58 @@
         <v>10 min</v>
       </c>
       <c r="D14">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="E14" t="str">
-        <v>6 hour</v>
+        <v>12 hour</v>
       </c>
       <c r="G14" t="str">
-        <v>6 hour</v>
+        <v>12 hour</v>
       </c>
       <c r="H14" s="3" t="str">
-        <v>40.0</v>
+        <v>41.5</v>
       </c>
       <c r="I14" s="3" t="str">
-        <v>47.1</v>
+        <v>49.1</v>
       </c>
       <c r="J14" s="3" t="str">
-        <v>70.6</v>
+        <v>74.8</v>
       </c>
       <c r="K14" s="3" t="str">
-        <v>87.8</v>
+        <v>93.7</v>
       </c>
       <c r="L14" s="3" t="str">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M14" s="3" t="str">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="N14" s="3" t="str">
-        <v>151</v>
+        <v>164</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>12 hour</v>
+      </c>
+      <c r="R14" s="3" t="str">
+        <v>41.5</v>
+      </c>
+      <c r="S14" s="3" t="str">
+        <v>49.1</v>
+      </c>
+      <c r="T14" s="3" t="str">
+        <v>74.8</v>
+      </c>
+      <c r="U14" s="3" t="str">
+        <v>93.7</v>
+      </c>
+      <c r="V14" s="3" t="str">
+        <v>113</v>
+      </c>
+      <c r="W14" s="3" t="str">
+        <v>141</v>
+      </c>
+      <c r="X14" s="3" t="str">
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -3629,34 +3828,58 @@
         <v>15 min</v>
       </c>
       <c r="D15">
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="E15" t="str">
-        <v>9 hour</v>
+        <v>18 hour</v>
       </c>
       <c r="G15" t="str">
-        <v>9 hour</v>
+        <v>18 hour</v>
       </c>
       <c r="H15" s="3" t="str">
-        <v>44.8</v>
+        <v>45.1</v>
       </c>
       <c r="I15" s="3" t="str">
-        <v>53.2</v>
+        <v>53.8</v>
       </c>
       <c r="J15" s="3" t="str">
-        <v>81.8</v>
+        <v>83.2</v>
       </c>
       <c r="K15" s="3" t="str">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L15" s="3" t="str">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M15" s="3" t="str">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N15" s="3" t="str">
-        <v>185</v>
+        <v>189</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>18 hour</v>
+      </c>
+      <c r="R15" s="3" t="str">
+        <v>45.1</v>
+      </c>
+      <c r="S15" s="3" t="str">
+        <v>53.8</v>
+      </c>
+      <c r="T15" s="3" t="str">
+        <v>83.2</v>
+      </c>
+      <c r="U15" s="3" t="str">
+        <v>105</v>
+      </c>
+      <c r="V15" s="3" t="str">
+        <v>129</v>
+      </c>
+      <c r="W15" s="3" t="str">
+        <v>162</v>
+      </c>
+      <c r="X15" s="3" t="str">
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -3667,37 +3890,61 @@
         <v>20 min</v>
       </c>
       <c r="D16">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="E16" t="str">
-        <v>12 hour</v>
+        <v>24 hour</v>
       </c>
       <c r="G16" t="str">
-        <v>12 hour</v>
+        <v>24 hour</v>
       </c>
       <c r="H16" s="3" t="str">
-        <v>48.8</v>
+        <v>47.7</v>
       </c>
       <c r="I16" s="3" t="str">
-        <v>58.3</v>
+        <v>57.0</v>
       </c>
       <c r="J16" s="3" t="str">
-        <v>91.1</v>
+        <v>89.2</v>
       </c>
       <c r="K16" s="3" t="str">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L16" s="3" t="str">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M16" s="3" t="str">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="N16" s="3" t="str">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>24 hour</v>
+      </c>
+      <c r="R16" s="3" t="str">
+        <v>47.7</v>
+      </c>
+      <c r="S16" s="3" t="str">
+        <v>57.0</v>
+      </c>
+      <c r="T16" s="3" t="str">
+        <v>89.2</v>
+      </c>
+      <c r="U16" s="3" t="str">
+        <v>114</v>
+      </c>
+      <c r="V16" s="3" t="str">
+        <v>140</v>
+      </c>
+      <c r="W16" s="3" t="str">
+        <v>176</v>
+      </c>
+      <c r="X16" s="3" t="str">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>25</v>
       </c>
@@ -3705,78 +3952,123 @@
         <v>25 min</v>
       </c>
       <c r="D17">
-        <v>1080</v>
+        <v>1800</v>
       </c>
       <c r="E17" t="str">
-        <v>18 hour</v>
+        <v>30 hour</v>
       </c>
       <c r="G17" t="str">
-        <v>18 hour</v>
+        <v>30 hour</v>
       </c>
       <c r="H17" s="3" t="str">
-        <v>54.9</v>
+        <v>49.6</v>
       </c>
       <c r="I17" s="3" t="str">
-        <v>66.2</v>
+        <v>59.5</v>
       </c>
       <c r="J17" s="3" t="str">
-        <v>106</v>
+        <v>93.7</v>
       </c>
       <c r="K17" s="3" t="str">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="L17" s="3" t="str">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="M17" s="3" t="str">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="N17" s="3" t="str">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>30 hour</v>
+      </c>
+      <c r="R17" s="3" t="str">
+        <v>49.6</v>
+      </c>
+      <c r="S17" s="3" t="str">
+        <v>59.5</v>
+      </c>
+      <c r="T17" s="3" t="str">
+        <v>93.7</v>
+      </c>
+      <c r="U17" s="3" t="str">
+        <v>120</v>
+      </c>
+      <c r="V17" s="3" t="str">
+        <v>148</v>
+      </c>
+      <c r="W17" s="3" t="str">
+        <v>187</v>
+      </c>
+      <c r="X17" s="3" t="str">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>30</v>
       </c>
       <c r="B18" t="str">
         <v>30 min</v>
       </c>
-      <c r="C18">
-        <v>30</v>
-      </c>
       <c r="D18">
-        <v>1440</v>
+        <v>2160</v>
       </c>
       <c r="E18" t="str">
-        <v>24 hour</v>
+        <v>36 hour</v>
       </c>
       <c r="G18" t="str">
-        <v>24 hour</v>
+        <v>36 hour</v>
       </c>
       <c r="H18" s="3" t="str">
-        <v>59.8</v>
+        <v>51.2</v>
       </c>
       <c r="I18" s="3" t="str">
-        <v>72.3</v>
+        <v>61.5</v>
       </c>
       <c r="J18" s="3" t="str">
-        <v>117</v>
+        <v>97.2</v>
       </c>
       <c r="K18" s="3" t="str">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="L18" s="3" t="str">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="M18" s="3" t="str">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="N18" s="3" t="str">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>36 hour</v>
+      </c>
+      <c r="R18" s="3" t="str">
+        <v>51.2</v>
+      </c>
+      <c r="S18" s="3" t="str">
+        <v>61.5</v>
+      </c>
+      <c r="T18" s="3" t="str">
+        <v>97.2</v>
+      </c>
+      <c r="U18" s="3" t="str">
+        <v>124</v>
+      </c>
+      <c r="V18" s="3" t="str">
+        <v>154</v>
+      </c>
+      <c r="W18" s="3" t="str">
+        <v>195</v>
+      </c>
+      <c r="X18" s="3" t="str">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>45</v>
       </c>
@@ -3784,37 +4076,61 @@
         <v>45 min</v>
       </c>
       <c r="D19">
-        <v>1800</v>
+        <v>2880</v>
       </c>
       <c r="E19" t="str">
-        <v>30 hour</v>
+        <v>48 hour</v>
       </c>
       <c r="G19" t="str">
-        <v>30 hour</v>
+        <v>48 hour</v>
       </c>
       <c r="H19" s="3" t="str">
-        <v>63.7</v>
+        <v>53.7</v>
       </c>
       <c r="I19" s="3" t="str">
-        <v>77.2</v>
+        <v>64.5</v>
       </c>
       <c r="J19" s="3" t="str">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="K19" s="3" t="str">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="L19" s="3" t="str">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="M19" s="3" t="str">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="N19" s="3" t="str">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>48 hour</v>
+      </c>
+      <c r="R19" s="3" t="str">
+        <v>53.7</v>
+      </c>
+      <c r="S19" s="3" t="str">
+        <v>64.5</v>
+      </c>
+      <c r="T19" s="3" t="str">
+        <v>102</v>
+      </c>
+      <c r="U19" s="3" t="str">
+        <v>131</v>
+      </c>
+      <c r="V19" s="3" t="str">
+        <v>163</v>
+      </c>
+      <c r="W19" s="3" t="str">
+        <v>207</v>
+      </c>
+      <c r="X19" s="3" t="str">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>60</v>
       </c>
@@ -3825,78 +4141,76 @@
         <v>60</v>
       </c>
       <c r="D20">
-        <v>2160</v>
+        <v>4320</v>
       </c>
       <c r="E20" t="str">
-        <v>36 hour</v>
+        <v>72 hour</v>
       </c>
       <c r="G20" t="str">
-        <v>36 hour</v>
+        <v>72 hour</v>
       </c>
       <c r="H20" s="3" t="str">
-        <v>66.9</v>
+        <v>57.2</v>
       </c>
       <c r="I20" s="3" t="str">
-        <v>81.3</v>
+        <v>68.8</v>
       </c>
       <c r="J20" s="3" t="str">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="K20" s="3" t="str">
+        <v>140</v>
+      </c>
+      <c r="L20" s="3" t="str">
         <v>173</v>
       </c>
-      <c r="L20" s="3" t="str">
+      <c r="M20" s="3" t="str">
         <v>219</v>
       </c>
-      <c r="M20" s="3" t="str">
-        <v>279</v>
-      </c>
       <c r="N20" s="3" t="str">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>72 hour</v>
+      </c>
+      <c r="R20" s="3" t="str">
+        <v>57.2</v>
+      </c>
+      <c r="S20" s="3" t="str">
+        <v>68.8</v>
+      </c>
+      <c r="T20" s="3" t="str">
+        <v>109</v>
+      </c>
+      <c r="U20" s="3" t="str">
+        <v>140</v>
+      </c>
+      <c r="V20" s="3" t="str">
+        <v>173</v>
+      </c>
+      <c r="W20" s="3" t="str">
+        <v>219</v>
+      </c>
+      <c r="X20" s="3" t="str">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>90</v>
       </c>
       <c r="B21" t="str">
         <v>1.5 hour</v>
       </c>
-      <c r="C21">
-        <v>90</v>
-      </c>
-      <c r="D21">
-        <v>2880</v>
-      </c>
-      <c r="E21" t="str">
-        <v>48 hour</v>
-      </c>
-      <c r="G21" t="str">
-        <v>48 hour</v>
-      </c>
-      <c r="H21" s="3" t="str">
-        <v>72.0</v>
-      </c>
-      <c r="I21" s="3" t="str">
-        <v>87.5</v>
-      </c>
-      <c r="J21" s="3" t="str">
-        <v>143</v>
-      </c>
-      <c r="K21" s="3" t="str">
-        <v>187</v>
-      </c>
-      <c r="L21" s="3" t="str">
-        <v>236</v>
-      </c>
-      <c r="M21" s="3" t="str">
-        <v>300</v>
-      </c>
-      <c r="N21" s="3" t="str">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>120</v>
       </c>
@@ -3906,38 +4220,15 @@
       <c r="C22">
         <v>120</v>
       </c>
-      <c r="D22">
-        <v>4320</v>
-      </c>
-      <c r="E22" t="str">
-        <v>72 hour</v>
-      </c>
-      <c r="G22" t="str">
-        <v>72 hour</v>
-      </c>
-      <c r="H22" s="3" t="str">
-        <v>78.7</v>
-      </c>
-      <c r="I22" s="3" t="str">
-        <v>95.5</v>
-      </c>
-      <c r="J22" s="3" t="str">
-        <v>155</v>
-      </c>
-      <c r="K22" s="3" t="str">
-        <v>202</v>
-      </c>
-      <c r="L22" s="3" t="str">
-        <v>254</v>
-      </c>
-      <c r="M22" s="3" t="str">
-        <v>318</v>
-      </c>
-      <c r="N22" s="3" t="str">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>180</v>
       </c>
@@ -3955,7 +4246,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>270</v>
       </c>
@@ -3970,7 +4261,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>360</v>
       </c>
@@ -3988,7 +4279,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>540</v>
       </c>
@@ -4006,7 +4297,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>720</v>
       </c>
@@ -4024,7 +4315,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1080</v>
       </c>
@@ -4035,7 +4326,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1440</v>
       </c>
@@ -4046,7 +4337,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1800</v>
       </c>
@@ -4057,7 +4348,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2160</v>
       </c>
@@ -4068,7 +4359,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2880</v>
       </c>
